--- a/try.xlsx
+++ b/try.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,69 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
   <si>
-    <t xml:space="preserve">de</t>
+    <t xml:space="preserve">L:First Name</t>
   </si>
   <si>
-    <t xml:space="preserve">scdsd</t>
+    <t xml:space="preserve">I:txt:First Name</t>
   </si>
   <si>
-    <t xml:space="preserve">sacs</t>
+    <t xml:space="preserve">L:DOB</t>
   </si>
   <si>
-    <t xml:space="preserve">xda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfcf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fasf</t>
+    <t xml:space="preserve">I:d:DOB</t>
   </si>
 </sst>
 </file>
@@ -97,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,12 +106,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,118 +128,249 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/try.xlsx
+++ b/try.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="7">
   <si>
     <t xml:space="preserve">L:First Name</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t xml:space="preserve">I:d:DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I:h:DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:First Nameer6tyguijml.pvtrcdddddddpl.oiuybgtttttttttttttpl.o,imunhyyyyyyyyyonuhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhrdcccccccccccccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I:t:DOB</t>
   </si>
 </sst>
 </file>
@@ -106,8 +115,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -131,12 +148,13 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,7 +211,7 @@
       <c r="E2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -219,27 +237,21 @@
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="0" t="s">
         <v>0</v>
       </c>
@@ -257,7 +269,7 @@
       <c r="A4" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -333,14 +345,14 @@
       <c r="A6" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>0</v>
@@ -368,6 +380,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
